--- a/Test/Lawnmower/T2/Sensors_data_1000035.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000035.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9534617045926389</v>
+        <v>0.9901954875013849</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001595293157376104</v>
+        <v>0.000675993017326157</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03255916796472735</v>
+        <v>0.02478686391848778</v>
       </c>
       <c r="F2" t="n">
         <v>5</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3961327252109279</v>
+        <v>0.9824504590480283</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02353699961149751</v>
+        <v>0.0006950101150014637</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3189226325102444</v>
+        <v>0.2055619526616925</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9523654887916956</v>
+        <v>0.97612799255187</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001548173845801705</v>
+        <v>0.001092873626552953</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05962729005811784</v>
+        <v>0.003942773594946269</v>
       </c>
       <c r="F4" t="n">
         <v>5</v>
@@ -550,43 +550,18 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9876168538469841</v>
+        <v>0.9924724352118067</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0005346894206247851</v>
+        <v>0.0003561541957018973</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004086178943890684</v>
+        <v>0.06250810021364833</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>s5</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9341080029075205</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.00271565096238581</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.1197583847222441</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
